--- a/src/input_trial_balances/TESTUS02.xlsx
+++ b/src/input_trial_balances/TESTUS02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924AE67-F06C-394B-ACA2-55D7FAB18DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BA776-71F7-4144-B5B8-E5C414B392DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>

--- a/src/input_trial_balances/TESTUS02.xlsx
+++ b/src/input_trial_balances/TESTUS02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74BA776-71F7-4144-B5B8-E5C414B392DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5EAB2-2FE4-3440-B1D9-DA041908FF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
+    <workbookView xWindow="700" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>
   <sheets>
     <sheet name="Trial_Balance" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Company Name:</t>
   </si>
   <si>
-    <t>US01</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -154,6 +151,15 @@
   </si>
   <si>
     <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>            1,000.00 </t>
+  </si>
+  <si>
+    <t>         (33,000.00)</t>
   </si>
 </sst>
 </file>
@@ -163,14 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,18 +195,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,7 +522,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C36"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,11 +536,11 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1">
         <v>45169</v>
@@ -549,388 +548,388 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>160</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>170</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>210</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>310</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>400</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>410</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>415</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>130</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>140</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>160</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>165</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>170</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>210</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2">
-        <v>-15500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>220</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>250</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>300</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-10000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>310</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>330</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="2">
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>400</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="2">
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>410</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>415</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>500</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>510</v>
+      </c>
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>510</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>520</v>
+      </c>
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>520</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>530</v>
+      </c>
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>530</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>535</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>535</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>540</v>
+      </c>
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>540</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>550</v>
+      </c>
+      <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>550</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>560</v>
+      </c>
+      <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>560</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>570</v>
+      </c>
+      <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>570</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>575</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>575</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>580</v>
+      </c>
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>580</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>590</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>590</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>595</v>
+      </c>
+      <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>595</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>610</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>610</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
+      <c r="C36" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/input_trial_balances/TESTUS02.xlsx
+++ b/src/input_trial_balances/TESTUS02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB5EAB2-2FE4-3440-B1D9-DA041908FF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB631B18-11C3-1D4A-9235-0DC63AFD78C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Company Name:</t>
   </si>
@@ -154,12 +154,6 @@
   </si>
   <si>
     <t>US02</t>
-  </si>
-  <si>
-    <t>            1,000.00 </t>
-  </si>
-  <si>
-    <t>         (33,000.00)</t>
   </si>
 </sst>
 </file>
@@ -198,11 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -522,7 +515,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +529,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C1" t="s">
@@ -558,378 +551,377 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2">
+        <v>1000</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
+      <c r="C4" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
+      <c r="C5" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
+      <c r="C6" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
+      <c r="C7" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
+      <c r="C8" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
+      <c r="C9" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>160</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
+      <c r="C10" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>165</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
+      <c r="C11" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>170</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
+      <c r="C12" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
+      <c r="C13" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>210</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
+      <c r="C14" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
+      <c r="C15" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
+      <c r="C16" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
+      <c r="C17" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
+      <c r="C18" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>330</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
+      <c r="C19" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>400</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
+      <c r="C20" s="2">
+        <v>-33000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
+      <c r="C21" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>415</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
+      <c r="C22" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>500</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>510</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C24" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>520</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
+      <c r="C25" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>530</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
+      <c r="C26" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>535</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
+      <c r="C27" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>540</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>40</v>
+      <c r="C28" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>550</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>40</v>
+      <c r="C29" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>560</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
+      <c r="C30" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>570</v>
       </c>
       <c r="B31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
+      <c r="C31" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>575</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
+      <c r="C32" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>580</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
+      <c r="C33" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>590</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
+      <c r="C34" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>595</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
+      <c r="C35" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>610</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>40</v>
+      <c r="C36" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/src/input_trial_balances/TESTUS02.xlsx
+++ b/src/input_trial_balances/TESTUS02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmuther/Dev/Personal/Consolidation_Tool_Java/src/input_trial_balances/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB631B18-11C3-1D4A-9235-0DC63AFD78C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B868EB-4973-1044-9153-BEEC35E0E237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1000" windowWidth="27160" windowHeight="16440" xr2:uid="{7D95F7F2-E310-FE42-B6BB-709D674CF68E}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
